--- a/柱塞泵2019.7.25-1.xlsx
+++ b/柱塞泵2019.7.25-1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -11,12 +11,12 @@
     <sheet name="对比" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>柱塞泵精度测试方法：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,14 +155,18 @@
   </si>
   <si>
     <t>（1000ul满量程测试）0.4%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,7 +467,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -537,7 +541,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -572,7 +575,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -748,14 +750,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="16.875" customWidth="1"/>
@@ -763,7 +765,7 @@
     <col min="8" max="8" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:8" ht="46.5" customHeight="1">
       <c r="C3" s="14" t="s">
         <v>0</v>
       </c>
@@ -775,7 +777,7 @@
       <c r="G3" s="13"/>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="3:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:8" ht="24" customHeight="1">
       <c r="C4" s="11" t="s">
         <v>1</v>
       </c>
@@ -787,7 +789,7 @@
       <c r="G4" s="13"/>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="3:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:8" ht="36.75" customHeight="1">
       <c r="C5" s="11" t="s">
         <v>8</v>
       </c>
@@ -799,7 +801,7 @@
       <c r="G5" s="13"/>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="3:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:8" ht="33.75" customHeight="1">
       <c r="C6" s="11" t="s">
         <v>6</v>
       </c>
@@ -811,7 +813,7 @@
       <c r="G6" s="13"/>
       <c r="H6" s="12"/>
     </row>
-    <row r="7" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:8" ht="36" customHeight="1">
       <c r="C7" s="11"/>
       <c r="D7" s="12"/>
       <c r="E7" s="11"/>
@@ -839,14 +841,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="11.625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
@@ -857,7 +859,7 @@
     <col min="10" max="10" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="3:12">
       <c r="C2" s="16" t="s">
         <v>2</v>
       </c>
@@ -870,7 +872,7 @@
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:12">
       <c r="C3" s="4"/>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -897,7 +899,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="3:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:12" ht="44.25" customHeight="1">
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
@@ -926,7 +928,7 @@
         <v>512.82000000000005</v>
       </c>
     </row>
-    <row r="5" spans="3:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:12" ht="53.25" customHeight="1">
       <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
@@ -955,7 +957,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="3:12" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:12" ht="39" customHeight="1">
       <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
@@ -985,7 +987,7 @@
       </c>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:12">
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -996,7 +998,7 @@
       <c r="J7" s="9"/>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:12">
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -1007,7 +1009,7 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="3:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:12" ht="13.5" customHeight="1">
       <c r="C9" s="24" t="s">
         <v>32</v>
       </c>
@@ -1020,7 +1022,7 @@
       <c r="J9" s="26"/>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:12">
       <c r="C10" s="23" t="s">
         <v>33</v>
       </c>
@@ -1033,7 +1035,7 @@
       <c r="J10" s="23"/>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:12">
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
@@ -1044,7 +1046,7 @@
       <c r="J11" s="23"/>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:12">
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
@@ -1055,7 +1057,7 @@
       <c r="J12" s="23"/>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:12">
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1066,7 +1068,7 @@
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:12">
       <c r="C14" s="17" t="s">
         <v>31</v>
       </c>
@@ -1079,7 +1081,7 @@
       <c r="J14" s="19"/>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="3:12">
       <c r="C15" s="20"/>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
@@ -1090,7 +1092,7 @@
       <c r="J15" s="22"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="3:12">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1101,7 +1103,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:11">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1112,8 +1114,10 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C18" s="1"/>
+    <row r="18" spans="3:11">
+      <c r="C18" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1123,7 +1127,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:11">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1134,7 +1138,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:11">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1145,7 +1149,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:11">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1156,7 +1160,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:11">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1167,7 +1171,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:11">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1178,7 +1182,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:11">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1189,7 +1193,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:11">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1200,7 +1204,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:11">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1211,7 +1215,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:11">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1222,7 +1226,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:11">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1233,7 +1237,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:11">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1244,7 +1248,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:11">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1255,7 +1259,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:11">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1266,7 +1270,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:11">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1277,7 +1281,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:11">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1303,12 +1307,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
